--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,7 +49,10 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
     <t>26 Apr -- 02 May 2020</t>
@@ -176,6 +179,12 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -536,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,25 +594,25 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1933.57</v>
+        <v>2202.86</v>
       </c>
       <c r="D2">
-        <v>1933.57</v>
+        <v>2202.86</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="H2">
-        <v>67.98999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="I2">
-        <v>1773</v>
+        <v>1767.48</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,16 +623,16 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1753.71</v>
+        <v>1933.57</v>
       </c>
       <c r="D3">
-        <v>1753.71</v>
+        <v>1933.57</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -634,16 +643,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1426.86</v>
+        <v>1753.71</v>
       </c>
       <c r="D4">
-        <v>1426.86</v>
+        <v>1753.71</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -654,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1220.57</v>
+        <v>1426.86</v>
       </c>
       <c r="D5">
-        <v>1220.57</v>
+        <v>1426.86</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -674,16 +683,16 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>946.14</v>
+        <v>1220.57</v>
       </c>
       <c r="D6">
-        <v>946.14</v>
+        <v>1220.57</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -694,16 +703,16 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>873.71</v>
+        <v>946.14</v>
       </c>
       <c r="D7">
-        <v>873.71</v>
+        <v>946.14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -714,16 +723,16 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>744.29</v>
+        <v>873.71</v>
       </c>
       <c r="D8">
-        <v>744.29</v>
+        <v>873.71</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,16 +743,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>602.14</v>
+        <v>744.29</v>
       </c>
       <c r="D9">
-        <v>602.14</v>
+        <v>744.29</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,16 +763,16 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>565.86</v>
+        <v>602.14</v>
       </c>
       <c r="D10">
-        <v>565.86</v>
+        <v>602.14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,16 +783,16 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>524.14</v>
+        <v>565.86</v>
       </c>
       <c r="D11">
-        <v>524.14</v>
+        <v>565.86</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,16 +803,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>748.86</v>
+        <v>524.14</v>
       </c>
       <c r="D12">
-        <v>748.86</v>
+        <v>524.14</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -814,16 +823,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>786.29</v>
+        <v>748.86</v>
       </c>
       <c r="D13">
-        <v>786.29</v>
+        <v>748.86</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -834,16 +843,16 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>922</v>
+        <v>786.29</v>
       </c>
       <c r="D14">
-        <v>922</v>
+        <v>786.29</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -854,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>1140.43</v>
+        <v>922</v>
       </c>
       <c r="D15">
-        <v>1140.43</v>
+        <v>922</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -874,16 +883,16 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>1038.43</v>
+        <v>1140.43</v>
       </c>
       <c r="D16">
-        <v>1038.43</v>
+        <v>1140.43</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -894,16 +903,16 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>1007.43</v>
+        <v>1038.43</v>
       </c>
       <c r="D17">
-        <v>1007.43</v>
+        <v>1038.43</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -914,16 +923,16 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>973.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="D18">
-        <v>973.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -934,16 +943,16 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>894.5700000000001</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D19">
-        <v>894.5700000000001</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -954,16 +963,16 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>846.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D20">
-        <v>846.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -974,16 +983,16 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>733.14</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D21">
-        <v>733.14</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -994,16 +1003,16 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>797.86</v>
+        <v>733.14</v>
       </c>
       <c r="D22">
-        <v>797.86</v>
+        <v>733.14</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,16 +1023,16 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>766.4299999999999</v>
+        <v>797.86</v>
       </c>
       <c r="D23">
-        <v>766.4299999999999</v>
+        <v>797.86</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>702.14</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D24">
-        <v>702.14</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,16 +1063,16 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>714.29</v>
+        <v>702.14</v>
       </c>
       <c r="D25">
-        <v>795.91</v>
+        <v>702.14</v>
       </c>
       <c r="E25">
-        <v>81.63</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1074,16 +1083,16 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>717.4299999999999</v>
+        <v>714.29</v>
       </c>
       <c r="D26">
-        <v>815.92</v>
+        <v>714.29</v>
       </c>
       <c r="E26">
-        <v>98.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1094,16 +1103,16 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>821.5700000000001</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D27">
-        <v>936.1900000000001</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E27">
-        <v>114.61</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1114,16 +1123,16 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>819</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D28">
-        <v>831.16</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E28">
-        <v>12.16</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1134,16 +1143,16 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>994.86</v>
+        <v>819</v>
       </c>
       <c r="D29">
-        <v>742.8200000000001</v>
+        <v>819</v>
       </c>
       <c r="E29">
-        <v>252.04</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,16 +1163,16 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>1087.29</v>
+        <v>994.86</v>
       </c>
       <c r="D30">
-        <v>789.04</v>
+        <v>994.86</v>
       </c>
       <c r="E30">
-        <v>298.24</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1174,16 +1183,16 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>1466.29</v>
+        <v>1087.29</v>
       </c>
       <c r="D31">
-        <v>768.9400000000001</v>
+        <v>1087.29</v>
       </c>
       <c r="E31">
-        <v>697.34</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1194,19 +1203,19 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>1447.14</v>
+        <v>1466.29</v>
       </c>
       <c r="D32">
-        <v>742.36</v>
+        <v>881.15</v>
       </c>
       <c r="E32">
-        <v>704.78</v>
+        <v>585.14</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1214,19 +1223,19 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>2150.29</v>
+        <v>1447.14</v>
       </c>
       <c r="D33">
-        <v>744.91</v>
+        <v>881.17</v>
       </c>
       <c r="E33">
-        <v>1405.38</v>
+        <v>565.98</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1234,19 +1243,19 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>2383.14</v>
+        <v>2150.29</v>
       </c>
       <c r="D34">
-        <v>737.21</v>
+        <v>881.05</v>
       </c>
       <c r="E34">
-        <v>1645.94</v>
+        <v>1269.23</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1254,19 +1263,19 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>2607.86</v>
+        <v>2383.14</v>
       </c>
       <c r="D35">
-        <v>834.86</v>
+        <v>880.85</v>
       </c>
       <c r="E35">
-        <v>1773</v>
+        <v>1502.29</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1274,25 +1283,19 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>2250</v>
+        <v>2607.86</v>
       </c>
       <c r="D36">
-        <v>852.21</v>
+        <v>881.38</v>
       </c>
       <c r="E36">
-        <v>1397.79</v>
+        <v>1726.48</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36">
-        <v>1397.79</v>
-      </c>
-      <c r="K36">
-        <v>62.12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1300,39 +1303,39 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>2611</v>
+        <v>2250</v>
       </c>
       <c r="D37">
-        <v>866.47</v>
+        <v>881.35</v>
       </c>
       <c r="E37">
-        <v>1744.53</v>
+        <v>1368.65</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37">
-        <v>1571.16</v>
-      </c>
-      <c r="K37">
-        <v>64.47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
       </c>
+      <c r="C38">
+        <v>2611</v>
+      </c>
       <c r="D38">
-        <v>871.1</v>
+        <v>881.3</v>
+      </c>
+      <c r="E38">
+        <v>1729.7</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1340,13 +1343,13 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>902.49</v>
+        <v>880.85</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1354,13 +1357,13 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>924.77</v>
+        <v>1085.33</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1368,13 +1371,13 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>856.29</v>
+        <v>1018.19</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1382,13 +1385,13 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>930.37</v>
+        <v>891.22</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1396,10 +1399,52 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1717.18</v>
+        <v>1535.92</v>
       </c>
       <c r="F43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
         <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1675.07</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>951.35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>707.41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,10 +49,16 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
-    <t>19 Apr -- 25 Apr 2020</t>
+    <t>2021-01-09</t>
   </si>
   <si>
     <t>26 Apr -- 02 May 2020</t>
@@ -185,6 +191,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -545,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,28 +600,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>2202.86</v>
+        <v>1933.57</v>
       </c>
       <c r="D2">
-        <v>2202.86</v>
+        <v>1933.57</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="H2">
-        <v>67.69</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="I2">
-        <v>1767.48</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,19 +629,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>1933.57</v>
+        <v>1753.71</v>
       </c>
       <c r="D3">
-        <v>1933.57</v>
+        <v>1753.71</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -640,19 +649,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>1753.71</v>
+        <v>1426.86</v>
       </c>
       <c r="D4">
-        <v>1753.71</v>
+        <v>1426.86</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -660,19 +669,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1426.86</v>
+        <v>1220.57</v>
       </c>
       <c r="D5">
-        <v>1426.86</v>
+        <v>1220.57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,19 +689,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>1220.57</v>
+        <v>946.14</v>
       </c>
       <c r="D6">
-        <v>1220.57</v>
+        <v>946.14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,19 +709,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>946.14</v>
+        <v>873.71</v>
       </c>
       <c r="D7">
-        <v>946.14</v>
+        <v>873.71</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,19 +729,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>873.71</v>
+        <v>744.29</v>
       </c>
       <c r="D8">
-        <v>873.71</v>
+        <v>744.29</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,19 +749,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>744.29</v>
+        <v>602.14</v>
       </c>
       <c r="D9">
-        <v>744.29</v>
+        <v>602.14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,19 +769,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>602.14</v>
+        <v>565.86</v>
       </c>
       <c r="D10">
-        <v>602.14</v>
+        <v>565.86</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,19 +789,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>565.86</v>
+        <v>524.14</v>
       </c>
       <c r="D11">
-        <v>565.86</v>
+        <v>524.14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,19 +809,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>524.14</v>
+        <v>748.86</v>
       </c>
       <c r="D12">
-        <v>524.14</v>
+        <v>748.86</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -820,19 +829,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>748.86</v>
+        <v>786.29</v>
       </c>
       <c r="D13">
-        <v>748.86</v>
+        <v>786.29</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -840,19 +849,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>786.29</v>
+        <v>922</v>
       </c>
       <c r="D14">
-        <v>786.29</v>
+        <v>922</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,19 +869,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>922</v>
+        <v>1140.43</v>
       </c>
       <c r="D15">
-        <v>922</v>
+        <v>1140.43</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -880,19 +889,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>1140.43</v>
+        <v>1038.43</v>
       </c>
       <c r="D16">
-        <v>1140.43</v>
+        <v>1038.43</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -900,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>1038.43</v>
+        <v>1007.43</v>
       </c>
       <c r="D17">
-        <v>1038.43</v>
+        <v>1007.43</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -920,19 +929,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>1007.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D18">
-        <v>1007.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -940,19 +949,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>973.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D19">
-        <v>973.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -960,19 +969,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>894.5700000000001</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D20">
-        <v>894.5700000000001</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -980,19 +989,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>846.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="D21">
-        <v>846.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1000,19 +1009,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>733.14</v>
+        <v>797.86</v>
       </c>
       <c r="D22">
-        <v>733.14</v>
+        <v>797.86</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1020,19 +1029,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>797.86</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D23">
-        <v>797.86</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1040,19 +1049,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>766.4299999999999</v>
+        <v>702.14</v>
       </c>
       <c r="D24">
-        <v>766.4299999999999</v>
+        <v>702.14</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1060,19 +1069,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>702.14</v>
+        <v>714.29</v>
       </c>
       <c r="D25">
-        <v>702.14</v>
+        <v>795.91</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>81.63</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1080,19 +1089,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>714.29</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D26">
-        <v>714.29</v>
+        <v>815.92</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1100,19 +1109,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>717.4299999999999</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D27">
-        <v>717.4299999999999</v>
+        <v>936.1900000000001</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>114.61</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1120,19 +1129,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>821.5700000000001</v>
+        <v>819</v>
       </c>
       <c r="D28">
-        <v>821.5700000000001</v>
+        <v>831.16</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>12.16</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1140,19 +1149,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>819</v>
+        <v>994.86</v>
       </c>
       <c r="D29">
-        <v>819</v>
+        <v>742.8200000000001</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>252.04</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1160,19 +1169,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>994.86</v>
+        <v>1087.29</v>
       </c>
       <c r="D30">
-        <v>994.86</v>
+        <v>789.04</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>298.24</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1180,19 +1189,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>1087.29</v>
+        <v>1466.29</v>
       </c>
       <c r="D31">
-        <v>1087.29</v>
+        <v>768.9400000000001</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>697.34</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1200,251 +1209,671 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>1466.29</v>
+        <v>1447.14</v>
       </c>
       <c r="D32">
-        <v>881.15</v>
+        <v>742.36</v>
       </c>
       <c r="E32">
-        <v>585.14</v>
+        <v>704.78</v>
       </c>
       <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>2150.29</v>
+      </c>
+      <c r="D33">
+        <v>744.91</v>
+      </c>
+      <c r="E33">
+        <v>1405.38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>2383.14</v>
+      </c>
+      <c r="D34">
+        <v>737.21</v>
+      </c>
+      <c r="E34">
+        <v>1645.94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>2607.86</v>
+      </c>
+      <c r="D35">
+        <v>834.86</v>
+      </c>
+      <c r="E35">
+        <v>1773</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>2243.29</v>
+      </c>
+      <c r="D36">
+        <v>852.21</v>
+      </c>
+      <c r="E36">
+        <v>1391.08</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>1391.08</v>
+      </c>
+      <c r="K36">
+        <v>62.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>2604.14</v>
+      </c>
+      <c r="D37">
+        <v>866.47</v>
+      </c>
+      <c r="E37">
+        <v>1737.67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37">
+        <v>1564.37</v>
+      </c>
+      <c r="K37">
+        <v>64.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>3174.14</v>
+      </c>
+      <c r="D38">
+        <v>871.1</v>
+      </c>
+      <c r="E38">
+        <v>2303.04</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38">
+        <v>1810.6</v>
+      </c>
+      <c r="K38">
+        <v>67.09999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>3333.57</v>
+      </c>
+      <c r="D39">
+        <v>902.49</v>
+      </c>
+      <c r="E39">
+        <v>2431.09</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39">
+        <v>1965.72</v>
+      </c>
+      <c r="K39">
+        <v>68.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>924.77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>856.29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>930.37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>1717.18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>2604.14</v>
+      </c>
+      <c r="D44">
+        <v>893.21</v>
+      </c>
+      <c r="E44">
+        <v>1710.93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>0.97</v>
+      </c>
+      <c r="H44">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="I44">
+        <v>1465.96</v>
+      </c>
+      <c r="J44">
+        <v>1914.76</v>
+      </c>
+      <c r="K44">
+        <v>67.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>3174.14</v>
+      </c>
+      <c r="D45">
+        <v>890.47</v>
+      </c>
+      <c r="E45">
+        <v>2283.67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>1976.25</v>
+      </c>
+      <c r="K45">
+        <v>68.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>3333.57</v>
+      </c>
+      <c r="D46">
+        <v>959.5599999999999</v>
+      </c>
+      <c r="E46">
+        <v>2374.01</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>2033.07</v>
+      </c>
+      <c r="K46">
+        <v>69.01000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>937.96</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>1030.18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>1301.66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>1513.33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>1447.14</v>
-      </c>
-      <c r="D33">
-        <v>881.17</v>
-      </c>
-      <c r="E33">
-        <v>565.98</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D51">
+        <v>1634.51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>3174.14</v>
+      </c>
+      <c r="D52">
+        <v>881.6799999999999</v>
+      </c>
+      <c r="E52">
+        <v>2292.46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52">
+        <v>67.69</v>
+      </c>
+      <c r="I52">
+        <v>1767.48</v>
+      </c>
+      <c r="J52">
+        <v>2065.49</v>
+      </c>
+      <c r="K52">
+        <v>69.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>3333.57</v>
+      </c>
+      <c r="D53">
+        <v>1085.6</v>
+      </c>
+      <c r="E53">
+        <v>2247.97</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53">
+        <v>2085.77</v>
+      </c>
+      <c r="K53">
+        <v>69.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>1019.48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>894.4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>1649.15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>1674.68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <v>2150.29</v>
-      </c>
-      <c r="D34">
-        <v>881.05</v>
-      </c>
-      <c r="E34">
-        <v>1269.23</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D58">
+        <v>953.51</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>708.51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60">
+        <v>3333.57</v>
+      </c>
+      <c r="D60">
+        <v>920.27</v>
+      </c>
+      <c r="E60">
+        <v>2413.3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60">
+        <v>0.99</v>
+      </c>
+      <c r="H60">
+        <v>74.83</v>
+      </c>
+      <c r="I60">
+        <v>2375.31</v>
+      </c>
+      <c r="J60">
+        <v>2118.52</v>
+      </c>
+      <c r="K60">
+        <v>69.51000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <v>992.85</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62">
+        <v>986.5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>1087.7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64">
+        <v>1135.72</v>
+      </c>
+      <c r="F64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>2383.14</v>
-      </c>
-      <c r="D35">
-        <v>880.85</v>
-      </c>
-      <c r="E35">
-        <v>1502.29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <v>2607.86</v>
-      </c>
-      <c r="D36">
-        <v>881.38</v>
-      </c>
-      <c r="E36">
-        <v>1726.48</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>2250</v>
-      </c>
-      <c r="D37">
-        <v>881.35</v>
-      </c>
-      <c r="E37">
-        <v>1368.65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>2611</v>
-      </c>
-      <c r="D38">
-        <v>881.3</v>
-      </c>
-      <c r="E38">
-        <v>1729.7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>880.85</v>
-      </c>
-      <c r="F39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>1085.33</v>
-      </c>
-      <c r="F40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>1018.19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42">
-        <v>891.22</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>1535.92</v>
-      </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44">
-        <v>1675.07</v>
-      </c>
-      <c r="F44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45">
-        <v>951.35</v>
-      </c>
-      <c r="F45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46">
-        <v>707.41</v>
-      </c>
-      <c r="F46" t="s">
-        <v>57</v>
+      <c r="D65">
+        <v>1262.06</v>
+      </c>
+      <c r="F65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66">
+        <v>1369.12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67">
+        <v>1496.33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1834,7 +1834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -1873,6 +1873,133 @@
         <v>1496.33</v>
       </c>
       <c r="F67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68">
+        <v>3333.57</v>
+      </c>
+      <c r="D68">
+        <v>860.29</v>
+      </c>
+      <c r="E68">
+        <v>2473.28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68">
+        <v>2375.32</v>
+      </c>
+      <c r="J68">
+        <v>2150.77</v>
+      </c>
+      <c r="K68">
+        <v>69.94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69">
+        <v>862.0700000000001</v>
+      </c>
+      <c r="F69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>826.12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>794.46</v>
+      </c>
+      <c r="F71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72">
+        <v>766.6900000000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73">
+        <v>767.8099999999999</v>
+      </c>
+      <c r="F73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74">
+        <v>802.62</v>
+      </c>
+      <c r="F74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75">
+        <v>904.74</v>
+      </c>
+      <c r="F75" t="s">
         <v>60</v>
       </c>
     </row>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>1.01</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1041,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1081,7 +1087,7 @@
         <v>81.63</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1101,7 +1107,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1121,7 +1127,7 @@
         <v>114.61</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1141,7 +1147,7 @@
         <v>12.16</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1161,7 +1167,7 @@
         <v>252.04</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1181,7 +1187,7 @@
         <v>298.24</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1201,7 +1207,7 @@
         <v>697.34</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1221,7 +1227,7 @@
         <v>704.78</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1241,7 +1247,7 @@
         <v>1405.38</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1261,7 +1267,7 @@
         <v>1645.94</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1281,7 +1287,7 @@
         <v>1773</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,25 +1295,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>2243.29</v>
+        <v>2241.86</v>
       </c>
       <c r="D36">
         <v>852.21</v>
       </c>
       <c r="E36">
-        <v>1391.08</v>
+        <v>1389.65</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J36">
-        <v>1391.08</v>
+        <v>1389.65</v>
       </c>
       <c r="K36">
-        <v>62.01</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,25 +1321,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D37">
         <v>866.47</v>
       </c>
       <c r="E37">
-        <v>1737.67</v>
+        <v>1737.96</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J37">
-        <v>1564.37</v>
+        <v>1563.8</v>
       </c>
       <c r="K37">
-        <v>64.37</v>
+        <v>64.36</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,25 +1347,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D38">
         <v>871.1</v>
       </c>
       <c r="E38">
-        <v>2303.04</v>
+        <v>2301.76</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J38">
-        <v>1810.6</v>
+        <v>1809.79</v>
       </c>
       <c r="K38">
-        <v>67.09999999999999</v>
+        <v>67.09</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>3333.57</v>
@@ -1379,13 +1385,13 @@
         <v>2431.09</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J39">
-        <v>1965.72</v>
+        <v>1965.11</v>
       </c>
       <c r="K39">
-        <v>68.56</v>
+        <v>68.55</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,13 +1399,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>924.77</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1407,13 +1413,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>856.29</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1421,13 +1427,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>930.37</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1435,13 +1441,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>1717.18</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1449,19 +1455,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D44">
         <v>893.21</v>
       </c>
       <c r="E44">
-        <v>1710.93</v>
+        <v>1711.22</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>0.97</v>
@@ -1473,7 +1479,7 @@
         <v>1465.96</v>
       </c>
       <c r="J44">
-        <v>1914.76</v>
+        <v>1914.33</v>
       </c>
       <c r="K44">
         <v>67.98</v>
@@ -1484,22 +1490,22 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D45">
         <v>890.47</v>
       </c>
       <c r="E45">
-        <v>2283.67</v>
+        <v>2282.38</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J45">
-        <v>1976.25</v>
+        <v>1975.67</v>
       </c>
       <c r="K45">
         <v>68.64</v>
@@ -1510,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>3333.57</v>
@@ -1522,10 +1528,10 @@
         <v>2374.01</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J46">
-        <v>2033.07</v>
+        <v>2032.58</v>
       </c>
       <c r="K46">
         <v>69.01000000000001</v>
@@ -1536,13 +1542,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>937.96</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1550,13 +1556,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>1030.18</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1564,13 +1570,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>1301.66</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1578,13 +1584,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>1513.33</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1592,13 +1598,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>1634.51</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1606,19 +1612,19 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D52">
         <v>881.6799999999999</v>
       </c>
       <c r="E52">
-        <v>2292.46</v>
+        <v>2291.17</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H52">
         <v>67.69</v>
@@ -1627,7 +1633,7 @@
         <v>1767.48</v>
       </c>
       <c r="J52">
-        <v>2065.49</v>
+        <v>2064.9</v>
       </c>
       <c r="K52">
         <v>69.41</v>
@@ -1638,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>3333.57</v>
@@ -1650,10 +1656,10 @@
         <v>2247.97</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J53">
-        <v>2085.77</v>
+        <v>2085.24</v>
       </c>
       <c r="K53">
         <v>69.19</v>
@@ -1664,13 +1670,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54">
         <v>1019.48</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1678,13 +1684,13 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55">
         <v>894.4</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1692,13 +1698,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56">
         <v>1649.15</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1706,13 +1712,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>1674.68</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1720,13 +1726,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58">
         <v>953.51</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1734,13 +1740,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59">
         <v>708.51</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1748,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60">
         <v>3333.57</v>
@@ -1760,7 +1766,7 @@
         <v>2413.3</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G60">
         <v>0.99</v>
@@ -1772,7 +1778,7 @@
         <v>2375.31</v>
       </c>
       <c r="J60">
-        <v>2118.52</v>
+        <v>2118.05</v>
       </c>
       <c r="K60">
         <v>69.51000000000001</v>
@@ -1783,13 +1789,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D61">
         <v>992.85</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1797,13 +1803,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D62">
         <v>986.5</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1811,13 +1817,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D63">
         <v>1087.7</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1825,13 +1831,13 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D64">
         <v>1135.72</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1839,13 +1845,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <v>1262.06</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1853,13 +1859,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D66">
         <v>1369.12</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1867,13 +1873,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D67">
         <v>1496.33</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1881,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68">
         <v>3333.57</v>
@@ -1893,16 +1899,16 @@
         <v>2473.28</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I68">
         <v>2375.32</v>
       </c>
       <c r="J68">
-        <v>2150.77</v>
+        <v>2150.34</v>
       </c>
       <c r="K68">
-        <v>69.94</v>
+        <v>69.93000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1910,13 +1916,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D69">
         <v>862.0700000000001</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1924,13 +1930,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D70">
         <v>826.12</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1938,13 +1944,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D71">
         <v>794.46</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1952,13 +1958,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D72">
         <v>766.6900000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1966,13 +1972,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D73">
         <v>767.8099999999999</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -1980,13 +1986,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D74">
         <v>802.62</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -1994,13 +2000,134 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D75">
         <v>904.74</v>
       </c>
       <c r="F75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>840.3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76">
+        <v>0.95</v>
+      </c>
+      <c r="H76">
+        <v>74.86</v>
+      </c>
+      <c r="I76">
+        <v>2495.37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77">
+        <v>877.14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>916.4299999999999</v>
+      </c>
+      <c r="F78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79">
+        <v>956.33</v>
+      </c>
+      <c r="F79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80">
+        <v>927.5599999999999</v>
+      </c>
+      <c r="F80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81">
+        <v>1243.6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
         <v>60</v>
+      </c>
+      <c r="D82">
+        <v>1417.18</v>
+      </c>
+      <c r="F82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83">
+        <v>1615.78</v>
+      </c>
+      <c r="F83" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1.01</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1067,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1087,7 +1093,7 @@
         <v>81.63</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1107,7 +1113,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1127,7 +1133,7 @@
         <v>114.61</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1147,7 +1153,7 @@
         <v>12.16</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1167,7 +1173,7 @@
         <v>252.04</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1187,7 +1193,7 @@
         <v>298.24</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1207,7 +1213,7 @@
         <v>697.34</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1227,7 +1233,7 @@
         <v>704.78</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1247,7 +1253,7 @@
         <v>1405.38</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1267,7 +1273,7 @@
         <v>1645.94</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1287,7 +1293,7 @@
         <v>1773</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>2241.86</v>
@@ -1307,7 +1313,7 @@
         <v>1389.65</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J36">
         <v>1389.65</v>
@@ -1321,22 +1327,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D37">
         <v>866.47</v>
       </c>
       <c r="E37">
-        <v>1737.96</v>
+        <v>1738.53</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J37">
-        <v>1563.8</v>
+        <v>1564.09</v>
       </c>
       <c r="K37">
         <v>64.36</v>
@@ -1347,22 +1353,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D38">
         <v>871.1</v>
       </c>
       <c r="E38">
-        <v>2301.76</v>
+        <v>2303.19</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J38">
-        <v>1809.79</v>
+        <v>1810.45</v>
       </c>
       <c r="K38">
         <v>67.09</v>
@@ -1373,25 +1379,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D39">
         <v>902.49</v>
       </c>
       <c r="E39">
-        <v>2431.09</v>
+        <v>2432.8</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J39">
-        <v>1965.11</v>
+        <v>1966.04</v>
       </c>
       <c r="K39">
-        <v>68.55</v>
+        <v>68.56</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1399,13 +1405,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>3085.57</v>
       </c>
       <c r="D40">
         <v>924.77</v>
       </c>
+      <c r="E40">
+        <v>2160.81</v>
+      </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J40">
+        <v>2004.99</v>
+      </c>
+      <c r="K40">
+        <v>68.84999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1413,13 +1431,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>3141</v>
       </c>
       <c r="D41">
         <v>856.29</v>
       </c>
+      <c r="E41">
+        <v>2284.71</v>
+      </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J41">
+        <v>2051.61</v>
+      </c>
+      <c r="K41">
+        <v>69.5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1427,13 +1457,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>930.37</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1441,13 +1471,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>1717.18</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1455,19 +1485,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D44">
         <v>893.21</v>
       </c>
       <c r="E44">
-        <v>1711.22</v>
+        <v>1711.79</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G44">
         <v>0.97</v>
@@ -1479,10 +1509,10 @@
         <v>1465.96</v>
       </c>
       <c r="J44">
-        <v>1914.33</v>
+        <v>2003.07</v>
       </c>
       <c r="K44">
-        <v>67.98</v>
+        <v>68.95999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1490,25 +1520,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D45">
         <v>890.47</v>
       </c>
       <c r="E45">
-        <v>2282.38</v>
+        <v>2283.81</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45">
-        <v>1975.67</v>
+        <v>2038.16</v>
       </c>
       <c r="K45">
-        <v>68.64</v>
+        <v>69.33</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1516,25 +1546,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D46">
         <v>959.5599999999999</v>
       </c>
       <c r="E46">
-        <v>2374.01</v>
+        <v>2375.72</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J46">
-        <v>2032.58</v>
+        <v>2075.67</v>
       </c>
       <c r="K46">
-        <v>69.01000000000001</v>
+        <v>69.54000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1542,13 +1572,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>3085.57</v>
       </c>
       <c r="D47">
         <v>937.96</v>
       </c>
+      <c r="E47">
+        <v>2147.62</v>
+      </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J47">
+        <v>2082.86</v>
+      </c>
+      <c r="K47">
+        <v>69.55</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1556,13 +1598,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <v>3141</v>
       </c>
       <c r="D48">
         <v>1030.18</v>
       </c>
+      <c r="E48">
+        <v>2110.82</v>
+      </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J48">
+        <v>2085.4</v>
+      </c>
+      <c r="K48">
+        <v>69.33</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1570,13 +1624,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>1301.66</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1584,13 +1638,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50">
         <v>1513.33</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1598,13 +1652,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>1634.51</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1612,19 +1666,19 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D52">
         <v>881.6799999999999</v>
       </c>
       <c r="E52">
-        <v>2291.17</v>
+        <v>2292.6</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H52">
         <v>67.69</v>
@@ -1633,10 +1687,10 @@
         <v>1767.48</v>
       </c>
       <c r="J52">
-        <v>2064.9</v>
+        <v>2102.67</v>
       </c>
       <c r="K52">
-        <v>69.41</v>
+        <v>69.58</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1644,25 +1698,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D53">
         <v>1085.6</v>
       </c>
       <c r="E53">
-        <v>2247.97</v>
+        <v>2249.69</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J53">
-        <v>2085.24</v>
+        <v>2113.98</v>
       </c>
       <c r="K53">
-        <v>69.19</v>
+        <v>69.41</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1670,13 +1724,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>3085.57</v>
       </c>
       <c r="D54">
         <v>1019.48</v>
       </c>
+      <c r="E54">
+        <v>2066.09</v>
+      </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J54">
+        <v>2110.56</v>
+      </c>
+      <c r="K54">
+        <v>69.23999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1684,13 +1750,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>3141</v>
       </c>
       <c r="D55">
         <v>894.4</v>
       </c>
+      <c r="E55">
+        <v>2246.6</v>
+      </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J55">
+        <v>2119.63</v>
+      </c>
+      <c r="K55">
+        <v>69.39</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1698,13 +1776,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>1649.15</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1712,13 +1790,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>1674.68</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1726,13 +1804,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>953.51</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1740,13 +1818,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>708.51</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1754,19 +1832,19 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D60">
         <v>920.27</v>
       </c>
       <c r="E60">
-        <v>2413.3</v>
+        <v>2415.02</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G60">
         <v>0.99</v>
@@ -1778,10 +1856,10 @@
         <v>2375.31</v>
       </c>
       <c r="J60">
-        <v>2118.05</v>
+        <v>2138.09</v>
       </c>
       <c r="K60">
-        <v>69.51000000000001</v>
+        <v>69.58</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1789,13 +1867,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>3085.57</v>
       </c>
       <c r="D61">
         <v>992.85</v>
       </c>
+      <c r="E61">
+        <v>2092.72</v>
+      </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J61">
+        <v>2135.42</v>
+      </c>
+      <c r="K61">
+        <v>69.47</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1803,13 +1893,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C62">
+        <v>3141</v>
       </c>
       <c r="D62">
         <v>986.5</v>
       </c>
+      <c r="E62">
+        <v>2154.5</v>
+      </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J62">
+        <v>2136.48</v>
+      </c>
+      <c r="K62">
+        <v>69.43000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1817,13 +1919,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63">
         <v>1087.7</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1831,13 +1933,13 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D64">
         <v>1135.72</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1845,13 +1947,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65">
         <v>1262.06</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1859,13 +1961,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66">
         <v>1369.12</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1873,13 +1975,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D67">
         <v>1496.33</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1887,28 +1989,28 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D68">
         <v>860.29</v>
       </c>
       <c r="E68">
-        <v>2473.28</v>
+        <v>2474.99</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I68">
         <v>2375.32</v>
       </c>
       <c r="J68">
-        <v>2150.34</v>
+        <v>2154.3</v>
       </c>
       <c r="K68">
-        <v>69.93000000000001</v>
+        <v>69.68000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1916,13 +2018,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C69">
+        <v>3085.57</v>
       </c>
       <c r="D69">
         <v>862.0700000000001</v>
       </c>
+      <c r="E69">
+        <v>2223.51</v>
+      </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J69">
+        <v>2157.76</v>
+      </c>
+      <c r="K69">
+        <v>69.8</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1930,13 +2044,25 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>3141</v>
       </c>
       <c r="D70">
         <v>826.12</v>
       </c>
+      <c r="E70">
+        <v>2314.88</v>
+      </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J70">
+        <v>2165.24</v>
+      </c>
+      <c r="K70">
+        <v>69.98</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1944,13 +2070,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D71">
         <v>794.46</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1958,13 +2084,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D72">
         <v>766.6900000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1972,13 +2098,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D73">
         <v>767.8099999999999</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -1986,13 +2112,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D74">
         <v>802.62</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2000,13 +2126,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D75">
         <v>904.74</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2014,13 +2140,19 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C76">
+        <v>3085.57</v>
       </c>
       <c r="D76">
         <v>840.3</v>
       </c>
+      <c r="E76">
+        <v>2245.27</v>
+      </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G76">
         <v>0.95</v>
@@ -2030,6 +2162,12 @@
       </c>
       <c r="I76">
         <v>2495.37</v>
+      </c>
+      <c r="J76">
+        <v>2168.88</v>
+      </c>
+      <c r="K76">
+        <v>70.11</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2037,13 +2175,25 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C77">
+        <v>3141</v>
       </c>
       <c r="D77">
         <v>877.14</v>
       </c>
+      <c r="E77">
+        <v>2263.86</v>
+      </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J77">
+        <v>2173.01</v>
+      </c>
+      <c r="K77">
+        <v>70.19</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2051,13 +2201,13 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D78">
         <v>916.4299999999999</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2065,13 +2215,13 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D79">
         <v>956.33</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2079,55 +2229,330 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D80">
         <v>927.5599999999999</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81">
         <v>1243.6</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D82">
         <v>1417.18</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D83">
         <v>1615.78</v>
       </c>
       <c r="F83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84">
+        <v>3085.57</v>
+      </c>
+      <c r="D84">
+        <v>868.6799999999999</v>
+      </c>
+      <c r="E84">
+        <v>2216.89</v>
+      </c>
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H84">
+        <v>74.27</v>
+      </c>
+      <c r="I84">
+        <v>2475.9</v>
+      </c>
+      <c r="J84">
+        <v>2174.84</v>
+      </c>
+      <c r="K84">
+        <v>70.26000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85">
+        <v>3141</v>
+      </c>
+      <c r="D85">
+        <v>907.87</v>
+      </c>
+      <c r="E85">
+        <v>2233.13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+      <c r="J85">
+        <v>2177.17</v>
+      </c>
+      <c r="K85">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>876.16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87">
+        <v>868.03</v>
+      </c>
+      <c r="F87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88">
+        <v>821.51</v>
+      </c>
+      <c r="F88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89">
+        <v>851.61</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90">
+        <v>937.87</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
         <v>62</v>
+      </c>
+      <c r="D91">
+        <v>1055.75</v>
+      </c>
+      <c r="F91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92">
+        <v>3141</v>
+      </c>
+      <c r="D92">
+        <v>888.86</v>
+      </c>
+      <c r="E92">
+        <v>2252.14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="I92">
+        <v>2235.87</v>
+      </c>
+      <c r="J92">
+        <v>2180.05</v>
+      </c>
+      <c r="K92">
+        <v>70.34999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93">
+        <v>901.5599999999999</v>
+      </c>
+      <c r="F93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94">
+        <v>1024.56</v>
+      </c>
+      <c r="F94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95">
+        <v>1014.05</v>
+      </c>
+      <c r="F95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96">
+        <v>1027.94</v>
+      </c>
+      <c r="F96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97">
+        <v>1255.83</v>
+      </c>
+      <c r="F97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98">
+        <v>1398.91</v>
+      </c>
+      <c r="F98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99">
+        <v>1641.03</v>
+      </c>
+      <c r="F99" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>1.01</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1093,7 +1099,7 @@
         <v>81.63</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1113,7 +1119,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1133,7 +1139,7 @@
         <v>114.61</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1153,7 +1159,7 @@
         <v>12.16</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1173,7 +1179,7 @@
         <v>252.04</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1193,7 +1199,7 @@
         <v>298.24</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1213,7 +1219,7 @@
         <v>697.34</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1233,7 +1239,7 @@
         <v>704.78</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1253,7 +1259,7 @@
         <v>1405.38</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1273,7 +1279,7 @@
         <v>1645.94</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1293,7 +1299,7 @@
         <v>1773</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>2241.86</v>
@@ -1313,7 +1319,7 @@
         <v>1389.65</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J36">
         <v>1389.65</v>
@@ -1327,25 +1333,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D37">
         <v>866.47</v>
       </c>
       <c r="E37">
-        <v>1738.53</v>
+        <v>1738.96</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J37">
-        <v>1564.09</v>
+        <v>1564.3</v>
       </c>
       <c r="K37">
-        <v>64.36</v>
+        <v>64.37</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,19 +1359,19 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D38">
         <v>871.1</v>
       </c>
       <c r="E38">
-        <v>2303.19</v>
+        <v>2302.76</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J38">
         <v>1810.45</v>
@@ -1379,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>3335.29</v>
@@ -1391,7 +1397,7 @@
         <v>2432.8</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J39">
         <v>1966.04</v>
@@ -1405,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>3085.57</v>
@@ -1417,7 +1423,7 @@
         <v>2160.81</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J40">
         <v>2004.99</v>
@@ -1431,25 +1437,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D41">
         <v>856.29</v>
       </c>
       <c r="E41">
-        <v>2284.71</v>
+        <v>2294.28</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J41">
-        <v>2051.61</v>
+        <v>2053.21</v>
       </c>
       <c r="K41">
-        <v>69.5</v>
+        <v>69.51000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1457,13 +1463,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>930.37</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1471,13 +1477,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43">
         <v>1717.18</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1485,19 +1491,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D44">
         <v>893.21</v>
       </c>
       <c r="E44">
-        <v>1711.79</v>
+        <v>1712.22</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G44">
         <v>0.97</v>
@@ -1509,10 +1515,10 @@
         <v>1465.96</v>
       </c>
       <c r="J44">
-        <v>2003.07</v>
+        <v>2004.49</v>
       </c>
       <c r="K44">
-        <v>68.95999999999999</v>
+        <v>68.97</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1520,25 +1526,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D45">
         <v>890.47</v>
       </c>
       <c r="E45">
-        <v>2283.81</v>
+        <v>2283.38</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
-        <v>2038.16</v>
+        <v>2039.36</v>
       </c>
       <c r="K45">
-        <v>69.33</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1546,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>3335.29</v>
@@ -1558,13 +1564,13 @@
         <v>2375.72</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J46">
-        <v>2075.67</v>
+        <v>2076.73</v>
       </c>
       <c r="K46">
-        <v>69.54000000000001</v>
+        <v>69.55</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1572,7 +1578,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>3085.57</v>
@@ -1584,13 +1590,13 @@
         <v>2147.62</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47">
-        <v>2082.86</v>
+        <v>2083.82</v>
       </c>
       <c r="K47">
-        <v>69.55</v>
+        <v>69.56</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1598,25 +1604,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D48">
         <v>1030.18</v>
       </c>
       <c r="E48">
-        <v>2110.82</v>
+        <v>2120.39</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J48">
-        <v>2085.4</v>
+        <v>2087.14</v>
       </c>
       <c r="K48">
-        <v>69.33</v>
+        <v>69.34999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1624,13 +1630,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49">
         <v>1301.66</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1638,13 +1644,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50">
         <v>1513.33</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1652,13 +1658,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51">
         <v>1634.51</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1666,19 +1672,19 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D52">
         <v>881.6799999999999</v>
       </c>
       <c r="E52">
-        <v>2292.6</v>
+        <v>2292.17</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H52">
         <v>67.69</v>
@@ -1687,10 +1693,10 @@
         <v>1767.48</v>
       </c>
       <c r="J52">
-        <v>2102.67</v>
+        <v>2104.23</v>
       </c>
       <c r="K52">
-        <v>69.58</v>
+        <v>69.59</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1698,7 +1704,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>3335.29</v>
@@ -1710,13 +1716,13 @@
         <v>2249.69</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J53">
-        <v>2113.98</v>
+        <v>2115.42</v>
       </c>
       <c r="K53">
-        <v>69.41</v>
+        <v>69.43000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1724,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>3085.57</v>
@@ -1736,13 +1742,13 @@
         <v>2066.09</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J54">
-        <v>2110.56</v>
+        <v>2111.89</v>
       </c>
       <c r="K54">
-        <v>69.23999999999999</v>
+        <v>69.25</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1750,25 +1756,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D55">
         <v>894.4</v>
       </c>
       <c r="E55">
-        <v>2246.6</v>
+        <v>2256.18</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J55">
-        <v>2119.63</v>
+        <v>2121.51</v>
       </c>
       <c r="K55">
-        <v>69.39</v>
+        <v>69.41</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1776,13 +1782,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56">
         <v>1649.15</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1790,13 +1796,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57">
         <v>1674.68</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1804,13 +1810,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <v>953.51</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1818,13 +1824,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59">
         <v>708.51</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1832,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <v>3335.29</v>
@@ -1844,7 +1850,7 @@
         <v>2415.02</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G60">
         <v>0.99</v>
@@ -1856,10 +1862,10 @@
         <v>2375.31</v>
       </c>
       <c r="J60">
-        <v>2138.09</v>
+        <v>2139.86</v>
       </c>
       <c r="K60">
-        <v>69.58</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1867,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>3085.57</v>
@@ -1879,13 +1885,13 @@
         <v>2092.72</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J61">
-        <v>2135.42</v>
+        <v>2137.08</v>
       </c>
       <c r="K61">
-        <v>69.47</v>
+        <v>69.48999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1893,25 +1899,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D62">
         <v>986.5</v>
       </c>
       <c r="E62">
-        <v>2154.5</v>
+        <v>2164.07</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J62">
-        <v>2136.48</v>
+        <v>2138.58</v>
       </c>
       <c r="K62">
-        <v>69.43000000000001</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1919,13 +1925,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D63">
         <v>1087.7</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1933,13 +1939,13 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D64">
         <v>1135.72</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1947,13 +1953,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <v>1262.06</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1961,13 +1967,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66">
         <v>1369.12</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1975,13 +1981,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D67">
         <v>1496.33</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1989,7 +1995,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68">
         <v>3335.29</v>
@@ -2001,16 +2007,16 @@
         <v>2474.99</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I68">
         <v>2375.32</v>
       </c>
       <c r="J68">
-        <v>2154.3</v>
+        <v>2156.29</v>
       </c>
       <c r="K68">
-        <v>69.68000000000001</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2018,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69">
         <v>3085.57</v>
@@ -2030,13 +2036,13 @@
         <v>2223.51</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J69">
-        <v>2157.76</v>
+        <v>2159.65</v>
       </c>
       <c r="K69">
-        <v>69.8</v>
+        <v>69.81</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2044,25 +2050,25 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D70">
         <v>826.12</v>
       </c>
       <c r="E70">
-        <v>2314.88</v>
+        <v>2324.45</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J70">
-        <v>2165.24</v>
+        <v>2167.5</v>
       </c>
       <c r="K70">
-        <v>69.98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2070,13 +2076,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71">
         <v>794.46</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2084,13 +2090,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D72">
         <v>766.6900000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2098,13 +2104,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D73">
         <v>767.8099999999999</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2112,13 +2118,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D74">
         <v>802.62</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2126,13 +2132,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D75">
         <v>904.74</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2140,7 +2146,7 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76">
         <v>3085.57</v>
@@ -2152,7 +2158,7 @@
         <v>2245.27</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G76">
         <v>0.95</v>
@@ -2164,10 +2170,10 @@
         <v>2495.37</v>
       </c>
       <c r="J76">
-        <v>2168.88</v>
+        <v>2171.03</v>
       </c>
       <c r="K76">
-        <v>70.11</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2175,25 +2181,25 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D77">
         <v>877.14</v>
       </c>
       <c r="E77">
-        <v>2263.86</v>
+        <v>2273.43</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J77">
-        <v>2173.01</v>
+        <v>2175.49</v>
       </c>
       <c r="K77">
-        <v>70.19</v>
+        <v>70.22</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2201,13 +2207,13 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D78">
         <v>916.4299999999999</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2215,13 +2221,13 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D79">
         <v>956.33</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2229,13 +2235,13 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D80">
         <v>927.5599999999999</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2243,13 +2249,13 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D81">
         <v>1243.6</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2257,13 +2263,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D82">
         <v>1417.18</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2271,13 +2277,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D83">
         <v>1615.78</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2285,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C84">
         <v>3085.57</v>
@@ -2297,7 +2303,7 @@
         <v>2216.89</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G84">
         <v>0.9399999999999999</v>
@@ -2309,10 +2315,10 @@
         <v>2475.9</v>
       </c>
       <c r="J84">
-        <v>2174.84</v>
+        <v>2177.21</v>
       </c>
       <c r="K84">
-        <v>70.26000000000001</v>
+        <v>70.29000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2320,25 +2326,25 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C85">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D85">
         <v>907.87</v>
       </c>
       <c r="E85">
-        <v>2233.13</v>
+        <v>2242.7</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J85">
-        <v>2177.17</v>
+        <v>2179.83</v>
       </c>
       <c r="K85">
-        <v>70.3</v>
+        <v>70.31999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2346,13 +2352,13 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D86">
         <v>876.16</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2360,13 +2366,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D87">
         <v>868.03</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2374,13 +2380,13 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D88">
         <v>821.51</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2388,13 +2394,13 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D89">
         <v>851.61</v>
       </c>
       <c r="F89" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2402,13 +2408,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D90">
         <v>937.87</v>
       </c>
       <c r="F90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2416,13 +2422,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D91">
         <v>1055.75</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2430,19 +2436,19 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C92">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D92">
         <v>888.86</v>
       </c>
       <c r="E92">
-        <v>2252.14</v>
+        <v>2261.71</v>
       </c>
       <c r="F92" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H92">
         <v>72.45999999999999</v>
@@ -2451,10 +2457,10 @@
         <v>2235.87</v>
       </c>
       <c r="J92">
-        <v>2180.05</v>
+        <v>2182.98</v>
       </c>
       <c r="K92">
-        <v>70.34999999999999</v>
+        <v>70.38</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2462,13 +2468,13 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D93">
         <v>901.5599999999999</v>
       </c>
       <c r="F93" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2476,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D94">
         <v>1024.56</v>
       </c>
       <c r="F94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2490,13 +2496,13 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D95">
         <v>1014.05</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2504,55 +2510,309 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D96">
         <v>1027.94</v>
       </c>
       <c r="F96" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D97">
         <v>1255.83</v>
       </c>
       <c r="F97" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D98">
         <v>1398.91</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D99">
         <v>1641.03</v>
       </c>
       <c r="F99" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100">
+        <v>3150.57</v>
+      </c>
+      <c r="D100">
+        <v>1189.13</v>
+      </c>
+      <c r="E100">
+        <v>1961.44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>66</v>
+      </c>
+      <c r="G100">
+        <v>0.96</v>
+      </c>
+      <c r="H100">
+        <v>73.78</v>
+      </c>
+      <c r="I100">
+        <v>2276.54</v>
+      </c>
+      <c r="J100">
+        <v>2174.77</v>
+      </c>
+      <c r="K100">
+        <v>70.08</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101">
+        <v>1280.97</v>
+      </c>
+      <c r="F101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102">
+        <v>1531.24</v>
+      </c>
+      <c r="F102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103">
+        <v>1403.62</v>
+      </c>
+      <c r="F103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104">
+        <v>1444.91</v>
+      </c>
+      <c r="F104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105">
+        <v>1597.67</v>
+      </c>
+      <c r="F105" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106">
+        <v>2126.8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
         <v>64</v>
+      </c>
+      <c r="D107">
+        <v>2220.8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108">
+        <v>1214.11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="I108">
+        <v>2424.68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109">
+        <v>1174.62</v>
+      </c>
+      <c r="F109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110">
+        <v>763.89</v>
+      </c>
+      <c r="F110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111">
+        <v>728.47</v>
+      </c>
+      <c r="F111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112">
+        <v>1384.64</v>
+      </c>
+      <c r="F112" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113">
+        <v>1494.33</v>
+      </c>
+      <c r="F113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114">
+        <v>937.89</v>
+      </c>
+      <c r="F114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115">
+        <v>2036.6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -630,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>1.01</v>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1019,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1059,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1099,7 +1105,7 @@
         <v>81.63</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1119,7 +1125,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1139,7 +1145,7 @@
         <v>114.61</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1159,7 +1165,7 @@
         <v>12.16</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1179,7 +1185,7 @@
         <v>252.04</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1199,7 +1205,7 @@
         <v>298.24</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1219,7 +1225,7 @@
         <v>697.34</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1239,7 +1245,7 @@
         <v>704.78</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1259,7 +1265,7 @@
         <v>1405.38</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1279,7 +1285,7 @@
         <v>1645.94</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1299,7 +1305,7 @@
         <v>1773</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,25 +1313,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>2241.86</v>
+        <v>2376.86</v>
       </c>
       <c r="D36">
         <v>852.21</v>
       </c>
       <c r="E36">
-        <v>1389.65</v>
+        <v>1524.65</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J36">
-        <v>1389.65</v>
+        <v>1524.65</v>
       </c>
       <c r="K36">
-        <v>61.99</v>
+        <v>64.15000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,25 +1339,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>2605.43</v>
+        <v>2683.43</v>
       </c>
       <c r="D37">
         <v>866.47</v>
       </c>
       <c r="E37">
-        <v>1738.96</v>
+        <v>1816.96</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J37">
-        <v>1564.3</v>
+        <v>1670.8</v>
       </c>
       <c r="K37">
-        <v>64.37</v>
+        <v>65.93000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1359,25 +1365,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D38">
         <v>871.1</v>
       </c>
       <c r="E38">
-        <v>2302.76</v>
+        <v>2277.04</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J38">
-        <v>1810.45</v>
+        <v>1872.88</v>
       </c>
       <c r="K38">
-        <v>67.09</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1385,25 +1391,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D39">
         <v>902.49</v>
       </c>
       <c r="E39">
-        <v>2432.8</v>
+        <v>2431.8</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J39">
-        <v>1966.04</v>
+        <v>2012.61</v>
       </c>
       <c r="K39">
-        <v>68.56</v>
+        <v>69.28</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1411,25 +1417,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D40">
         <v>924.77</v>
       </c>
       <c r="E40">
-        <v>2160.81</v>
+        <v>2134.23</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J40">
-        <v>2004.99</v>
+        <v>2036.94</v>
       </c>
       <c r="K40">
-        <v>68.84999999999999</v>
+        <v>69.38</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1437,25 +1443,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D41">
         <v>856.29</v>
       </c>
       <c r="E41">
-        <v>2294.28</v>
+        <v>2273.99</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J41">
-        <v>2053.21</v>
+        <v>2076.45</v>
       </c>
       <c r="K41">
-        <v>69.51000000000001</v>
+        <v>69.92</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1463,13 +1469,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>2986.71</v>
       </c>
       <c r="D42">
         <v>930.37</v>
       </c>
+      <c r="E42">
+        <v>2056.35</v>
+      </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J42">
+        <v>2073.57</v>
+      </c>
+      <c r="K42">
+        <v>69.77</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1477,13 +1495,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>2487.29</v>
       </c>
       <c r="D43">
         <v>1717.18</v>
       </c>
+      <c r="E43">
+        <v>770.11</v>
+      </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J43">
+        <v>1910.64</v>
+      </c>
+      <c r="K43">
+        <v>64.92</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1491,19 +1521,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
-        <v>2605.43</v>
+        <v>2683.43</v>
       </c>
       <c r="D44">
         <v>893.21</v>
       </c>
       <c r="E44">
-        <v>1712.22</v>
+        <v>1790.22</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>0.97</v>
@@ -1515,10 +1545,10 @@
         <v>1465.96</v>
       </c>
       <c r="J44">
-        <v>2004.49</v>
+        <v>1897.26</v>
       </c>
       <c r="K44">
-        <v>68.97</v>
+        <v>65.12</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1526,25 +1556,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D45">
         <v>890.47</v>
       </c>
       <c r="E45">
-        <v>2283.38</v>
+        <v>2257.67</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J45">
-        <v>2039.36</v>
+        <v>1933.3</v>
       </c>
       <c r="K45">
-        <v>69.34</v>
+        <v>65.78</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1552,25 +1582,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D46">
         <v>959.5599999999999</v>
       </c>
       <c r="E46">
-        <v>2375.72</v>
+        <v>2374.72</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J46">
-        <v>2076.73</v>
+        <v>1973.43</v>
       </c>
       <c r="K46">
-        <v>69.55</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1578,25 +1608,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D47">
         <v>937.96</v>
       </c>
       <c r="E47">
-        <v>2147.62</v>
+        <v>2121.04</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J47">
-        <v>2083.82</v>
+        <v>1985.73</v>
       </c>
       <c r="K47">
-        <v>69.56</v>
+        <v>66.53</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1604,25 +1634,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D48">
         <v>1030.18</v>
       </c>
       <c r="E48">
-        <v>2120.39</v>
+        <v>2100.1</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J48">
-        <v>2087.14</v>
+        <v>1994.53</v>
       </c>
       <c r="K48">
-        <v>69.34999999999999</v>
+        <v>66.56999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1630,13 +1660,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>2986.71</v>
       </c>
       <c r="D49">
         <v>1301.66</v>
       </c>
+      <c r="E49">
+        <v>1685.05</v>
+      </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J49">
+        <v>1972.42</v>
+      </c>
+      <c r="K49">
+        <v>65.84999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1644,13 +1686,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>2487.29</v>
       </c>
       <c r="D50">
         <v>1513.33</v>
       </c>
+      <c r="E50">
+        <v>973.96</v>
+      </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J50">
+        <v>1905.86</v>
+      </c>
+      <c r="K50">
+        <v>64.06999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1658,13 +1712,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <v>1906.71</v>
       </c>
       <c r="D51">
         <v>1634.51</v>
       </c>
+      <c r="E51">
+        <v>272.2</v>
+      </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J51">
+        <v>1803.76</v>
+      </c>
+      <c r="K51">
+        <v>60.95</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1672,19 +1738,19 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D52">
         <v>881.6799999999999</v>
       </c>
       <c r="E52">
-        <v>2292.17</v>
+        <v>2266.46</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H52">
         <v>67.69</v>
@@ -1693,10 +1759,10 @@
         <v>1767.48</v>
       </c>
       <c r="J52">
-        <v>2104.23</v>
+        <v>1830.97</v>
       </c>
       <c r="K52">
-        <v>69.59</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1704,25 +1770,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D53">
         <v>1085.6</v>
       </c>
       <c r="E53">
-        <v>2249.69</v>
+        <v>2248.69</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J53">
-        <v>2115.42</v>
+        <v>1854.18</v>
       </c>
       <c r="K53">
-        <v>69.43000000000001</v>
+        <v>61.93</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1730,25 +1796,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D54">
         <v>1019.48</v>
       </c>
       <c r="E54">
-        <v>2066.09</v>
+        <v>2039.52</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J54">
-        <v>2111.89</v>
+        <v>1863.94</v>
       </c>
       <c r="K54">
-        <v>69.25</v>
+        <v>62.18</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1756,25 +1822,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D55">
         <v>894.4</v>
       </c>
       <c r="E55">
-        <v>2256.18</v>
+        <v>2235.89</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J55">
-        <v>2121.51</v>
+        <v>1882.53</v>
       </c>
       <c r="K55">
-        <v>69.41</v>
+        <v>62.64</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1782,13 +1848,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>2986.71</v>
       </c>
       <c r="D56">
         <v>1649.15</v>
       </c>
+      <c r="E56">
+        <v>1337.56</v>
+      </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J56">
+        <v>1856.58</v>
+      </c>
+      <c r="K56">
+        <v>61.79</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1796,13 +1874,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>2487.29</v>
       </c>
       <c r="D57">
         <v>1674.68</v>
       </c>
+      <c r="E57">
+        <v>812.6</v>
+      </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J57">
+        <v>1809.13</v>
+      </c>
+      <c r="K57">
+        <v>60.47</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1810,13 +1900,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>1906.71</v>
       </c>
       <c r="D58">
         <v>953.51</v>
       </c>
+      <c r="E58">
+        <v>953.21</v>
+      </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J58">
+        <v>1771.91</v>
+      </c>
+      <c r="K58">
+        <v>60.01</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1824,13 +1926,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>708.51</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1838,19 +1940,19 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D60">
         <v>920.27</v>
       </c>
       <c r="E60">
-        <v>2415.02</v>
+        <v>2414.02</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G60">
         <v>0.99</v>
@@ -1862,10 +1964,10 @@
         <v>2375.31</v>
       </c>
       <c r="J60">
-        <v>2139.86</v>
+        <v>1798.67</v>
       </c>
       <c r="K60">
-        <v>69.59999999999999</v>
+        <v>60.53</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1873,25 +1975,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D61">
         <v>992.85</v>
       </c>
       <c r="E61">
-        <v>2092.72</v>
+        <v>2066.15</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J61">
-        <v>2137.08</v>
+        <v>1809.37</v>
       </c>
       <c r="K61">
-        <v>69.48999999999999</v>
+        <v>60.81</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1899,25 +2001,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D62">
         <v>986.5</v>
       </c>
       <c r="E62">
-        <v>2164.07</v>
+        <v>2143.79</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J62">
-        <v>2138.58</v>
+        <v>1822.23</v>
       </c>
       <c r="K62">
-        <v>69.45</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1925,13 +2027,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C63">
+        <v>2986.71</v>
       </c>
       <c r="D63">
         <v>1087.7</v>
       </c>
+      <c r="E63">
+        <v>1899.02</v>
+      </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J63">
+        <v>1825.07</v>
+      </c>
+      <c r="K63">
+        <v>61.2</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1939,13 +2053,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C64">
+        <v>2487.29</v>
       </c>
       <c r="D64">
         <v>1135.72</v>
       </c>
+      <c r="E64">
+        <v>1351.57</v>
+      </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J64">
+        <v>1808.16</v>
+      </c>
+      <c r="K64">
+        <v>60.95</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1953,13 +2079,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>1906.71</v>
       </c>
       <c r="D65">
         <v>1262.06</v>
       </c>
+      <c r="E65">
+        <v>644.65</v>
+      </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J65">
+        <v>1768.04</v>
+      </c>
+      <c r="K65">
+        <v>60.01</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1967,13 +2105,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D66">
         <v>1369.12</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1981,13 +2119,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D67">
         <v>1496.33</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1995,28 +2133,28 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D68">
         <v>860.29</v>
       </c>
       <c r="E68">
-        <v>2474.99</v>
+        <v>2473.99</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I68">
         <v>2375.32</v>
       </c>
       <c r="J68">
-        <v>2156.29</v>
+        <v>1791.57</v>
       </c>
       <c r="K68">
-        <v>69.7</v>
+        <v>60.49</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2024,25 +2162,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C69">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D69">
         <v>862.0700000000001</v>
       </c>
       <c r="E69">
-        <v>2223.51</v>
+        <v>2196.93</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J69">
-        <v>2159.65</v>
+        <v>1804.65</v>
       </c>
       <c r="K69">
-        <v>69.81</v>
+        <v>60.85</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2050,25 +2188,25 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D70">
         <v>826.12</v>
       </c>
       <c r="E70">
-        <v>2324.45</v>
+        <v>2304.17</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J70">
-        <v>2167.5</v>
+        <v>1820.26</v>
       </c>
       <c r="K70">
-        <v>70</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2076,13 +2214,25 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C71">
+        <v>2986.71</v>
       </c>
       <c r="D71">
         <v>794.46</v>
       </c>
+      <c r="E71">
+        <v>2192.25</v>
+      </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <v>1831.53</v>
+      </c>
+      <c r="K71">
+        <v>61.62</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2090,13 +2240,25 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>2487.29</v>
       </c>
       <c r="D72">
         <v>766.6900000000001</v>
       </c>
+      <c r="E72">
+        <v>1720.59</v>
+      </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J72">
+        <v>1828.27</v>
+      </c>
+      <c r="K72">
+        <v>61.84</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2104,13 +2266,25 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>1906.71</v>
       </c>
       <c r="D73">
         <v>767.8099999999999</v>
       </c>
+      <c r="E73">
+        <v>1138.9</v>
+      </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J73">
+        <v>1808.57</v>
+      </c>
+      <c r="K73">
+        <v>61.78</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2118,13 +2292,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D74">
         <v>802.62</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2132,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D75">
         <v>904.74</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2146,19 +2320,19 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C76">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D76">
         <v>840.3</v>
       </c>
       <c r="E76">
-        <v>2245.27</v>
+        <v>2218.7</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G76">
         <v>0.95</v>
@@ -2170,10 +2344,10 @@
         <v>2495.37</v>
       </c>
       <c r="J76">
-        <v>2171.03</v>
+        <v>1819.97</v>
       </c>
       <c r="K76">
-        <v>70.13</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2181,25 +2355,25 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C77">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D77">
         <v>877.14</v>
       </c>
       <c r="E77">
-        <v>2273.43</v>
+        <v>2253.15</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J77">
-        <v>2175.49</v>
+        <v>1831.67</v>
       </c>
       <c r="K77">
-        <v>70.22</v>
+        <v>62.35</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2207,13 +2381,25 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <v>2986.71</v>
       </c>
       <c r="D78">
         <v>916.4299999999999</v>
       </c>
+      <c r="E78">
+        <v>2070.28</v>
+      </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J78">
+        <v>1837.95</v>
+      </c>
+      <c r="K78">
+        <v>62.53</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2221,13 +2407,25 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C79">
+        <v>2487.29</v>
       </c>
       <c r="D79">
         <v>956.33</v>
       </c>
+      <c r="E79">
+        <v>1530.95</v>
+      </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J79">
+        <v>1830.08</v>
+      </c>
+      <c r="K79">
+        <v>62.51</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2235,13 +2433,25 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <v>1906.71</v>
       </c>
       <c r="D80">
         <v>927.5599999999999</v>
       </c>
+      <c r="E80">
+        <v>979.16</v>
+      </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J80">
+        <v>1808.81</v>
+      </c>
+      <c r="K80">
+        <v>62.23</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2249,13 +2459,13 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D81">
         <v>1243.6</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2263,13 +2473,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D82">
         <v>1417.18</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2277,13 +2487,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D83">
         <v>1615.78</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2291,19 +2501,19 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C84">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D84">
         <v>868.6799999999999</v>
       </c>
       <c r="E84">
-        <v>2216.89</v>
+        <v>2190.32</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G84">
         <v>0.9399999999999999</v>
@@ -2315,10 +2525,10 @@
         <v>2475.9</v>
       </c>
       <c r="J84">
-        <v>2177.21</v>
+        <v>1818.11</v>
       </c>
       <c r="K84">
-        <v>70.29000000000001</v>
+        <v>62.46</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2326,25 +2536,25 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C85">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D85">
         <v>907.87</v>
       </c>
       <c r="E85">
-        <v>2242.7</v>
+        <v>2222.42</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J85">
-        <v>2179.83</v>
+        <v>1827.74</v>
       </c>
       <c r="K85">
-        <v>70.31999999999999</v>
+        <v>62.66</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2352,13 +2562,25 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C86">
+        <v>2986.71</v>
       </c>
       <c r="D86">
         <v>876.16</v>
       </c>
+      <c r="E86">
+        <v>2110.55</v>
+      </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J86">
+        <v>1834.32</v>
+      </c>
+      <c r="K86">
+        <v>62.85</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2366,13 +2588,25 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C87">
+        <v>2487.29</v>
       </c>
       <c r="D87">
         <v>868.03</v>
       </c>
+      <c r="E87">
+        <v>1619.26</v>
+      </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J87">
+        <v>1829.43</v>
+      </c>
+      <c r="K87">
+        <v>62.9</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2380,13 +2614,25 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>1906.71</v>
       </c>
       <c r="D88">
         <v>821.51</v>
       </c>
+      <c r="E88">
+        <v>1085.2</v>
+      </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J88">
+        <v>1812.89</v>
+      </c>
+      <c r="K88">
+        <v>62.76</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2394,13 +2640,13 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D89">
         <v>851.61</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2408,13 +2654,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D90">
         <v>937.87</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2422,13 +2668,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D91">
         <v>1055.75</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2436,19 +2682,19 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C92">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D92">
         <v>888.86</v>
       </c>
       <c r="E92">
-        <v>2261.71</v>
+        <v>2241.43</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H92">
         <v>72.45999999999999</v>
@@ -2457,10 +2703,10 @@
         <v>2235.87</v>
       </c>
       <c r="J92">
-        <v>2182.98</v>
+        <v>1822.21</v>
       </c>
       <c r="K92">
-        <v>70.38</v>
+        <v>62.96</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2468,13 +2714,25 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C93">
+        <v>2986.71</v>
       </c>
       <c r="D93">
         <v>901.5599999999999</v>
       </c>
+      <c r="E93">
+        <v>2085.15</v>
+      </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J93">
+        <v>1827.8</v>
+      </c>
+      <c r="K93">
+        <v>63.1</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2482,13 +2740,25 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C94">
+        <v>2487.29</v>
       </c>
       <c r="D94">
         <v>1024.56</v>
       </c>
+      <c r="E94">
+        <v>1462.72</v>
+      </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J94">
+        <v>1820.19</v>
+      </c>
+      <c r="K94">
+        <v>63.01</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2496,13 +2766,25 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C95">
+        <v>1906.71</v>
       </c>
       <c r="D95">
         <v>1014.05</v>
       </c>
+      <c r="E95">
+        <v>892.67</v>
+      </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J95">
+        <v>1801.27</v>
+      </c>
+      <c r="K95">
+        <v>62.68</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2510,13 +2792,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D96">
         <v>1027.94</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2524,13 +2806,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D97">
         <v>1255.83</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2538,13 +2820,13 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D98">
         <v>1398.91</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2552,13 +2834,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D99">
         <v>1641.03</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2566,19 +2848,19 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D100">
         <v>1189.13</v>
       </c>
       <c r="E100">
-        <v>1961.44</v>
+        <v>1941.16</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G100">
         <v>0.96</v>
@@ -2590,10 +2872,10 @@
         <v>2276.54</v>
       </c>
       <c r="J100">
-        <v>2174.77</v>
+        <v>1804.06</v>
       </c>
       <c r="K100">
-        <v>70.08</v>
+        <v>62.67</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2601,13 +2883,25 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C101">
+        <v>2986.71</v>
       </c>
       <c r="D101">
         <v>1280.97</v>
       </c>
+      <c r="E101">
+        <v>1705.75</v>
+      </c>
       <c r="F101" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J101">
+        <v>1802.14</v>
+      </c>
+      <c r="K101">
+        <v>62.56</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2615,13 +2909,25 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C102">
+        <v>2487.29</v>
       </c>
       <c r="D102">
         <v>1531.24</v>
       </c>
+      <c r="E102">
+        <v>956.04</v>
+      </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J102">
+        <v>1785.86</v>
+      </c>
+      <c r="K102">
+        <v>62.1</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2629,13 +2935,25 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C103">
+        <v>1906.71</v>
       </c>
       <c r="D103">
         <v>1403.62</v>
       </c>
+      <c r="E103">
+        <v>503.1</v>
+      </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J103">
+        <v>1761.66</v>
+      </c>
+      <c r="K103">
+        <v>61.42</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2643,13 +2961,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D104">
         <v>1444.91</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2657,13 +2975,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D105">
         <v>1597.67</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -2671,13 +2989,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D106">
         <v>2126.8</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -2685,13 +3003,13 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D107">
         <v>2220.8</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -2699,13 +3017,19 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C108">
+        <v>2986.71</v>
       </c>
       <c r="D108">
         <v>1214.11</v>
       </c>
+      <c r="E108">
+        <v>1772.6</v>
+      </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -2715,6 +3039,12 @@
       </c>
       <c r="I108">
         <v>2424.68</v>
+      </c>
+      <c r="J108">
+        <v>1761.86</v>
+      </c>
+      <c r="K108">
+        <v>61.38</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -2722,13 +3052,25 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C109">
+        <v>2487.29</v>
       </c>
       <c r="D109">
         <v>1174.62</v>
       </c>
+      <c r="E109">
+        <v>1312.67</v>
+      </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J109">
+        <v>1753.7</v>
+      </c>
+      <c r="K109">
+        <v>61.23</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -2736,13 +3078,25 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C110">
+        <v>1906.71</v>
       </c>
       <c r="D110">
         <v>763.89</v>
       </c>
+      <c r="E110">
+        <v>1142.83</v>
+      </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J110">
+        <v>1742.79</v>
+      </c>
+      <c r="K110">
+        <v>61.2</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -2750,13 +3104,13 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D111">
         <v>728.47</v>
       </c>
       <c r="F111" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -2764,55 +3118,354 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D112">
         <v>1384.64</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D113">
         <v>1494.33</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D114">
         <v>937.89</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D115">
         <v>2036.6</v>
       </c>
       <c r="F115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116">
+        <v>2986.71</v>
+      </c>
+      <c r="D116">
+        <v>1513.02</v>
+      </c>
+      <c r="E116">
+        <v>1473.7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116">
+        <v>76.55</v>
+      </c>
+      <c r="I116">
+        <v>2411.75</v>
+      </c>
+      <c r="J116">
+        <v>1738.07</v>
+      </c>
+      <c r="K116">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117">
+        <v>2487.29</v>
+      </c>
+      <c r="D117">
+        <v>1686.83</v>
+      </c>
+      <c r="E117">
+        <v>800.45</v>
+      </c>
+      <c r="F117" t="s">
+        <v>68</v>
+      </c>
+      <c r="J117">
+        <v>1721.9</v>
+      </c>
+      <c r="K117">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118">
+        <v>1906.71</v>
+      </c>
+      <c r="D118">
+        <v>1507.37</v>
+      </c>
+      <c r="E118">
+        <v>399.35</v>
+      </c>
+      <c r="F118" t="s">
+        <v>68</v>
+      </c>
+      <c r="J118">
+        <v>1699.49</v>
+      </c>
+      <c r="K118">
+        <v>59.83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119">
+        <v>1543.2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120">
+        <v>1526.71</v>
+      </c>
+      <c r="F120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121">
+        <v>1651.81</v>
+      </c>
+      <c r="F121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122">
+        <v>1659.51</v>
+      </c>
+      <c r="F122" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
         <v>66</v>
+      </c>
+      <c r="D123">
+        <v>1871.11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124">
+        <v>2487.29</v>
+      </c>
+      <c r="D124">
+        <v>770.79</v>
+      </c>
+      <c r="E124">
+        <v>1716.49</v>
+      </c>
+      <c r="F124" t="s">
+        <v>68</v>
+      </c>
+      <c r="G124">
+        <v>1.04</v>
+      </c>
+      <c r="H124">
+        <v>75.92</v>
+      </c>
+      <c r="I124">
+        <v>2304.6</v>
+      </c>
+      <c r="J124">
+        <v>1699.77</v>
+      </c>
+      <c r="K124">
+        <v>59.98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125">
+        <v>1906.71</v>
+      </c>
+      <c r="D125">
+        <v>755.61</v>
+      </c>
+      <c r="E125">
+        <v>1151.11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>68</v>
+      </c>
+      <c r="J125">
+        <v>1690.77</v>
+      </c>
+      <c r="K125">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>62</v>
+      </c>
+      <c r="D126">
+        <v>798.36</v>
+      </c>
+      <c r="F126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127">
+        <v>913.67</v>
+      </c>
+      <c r="F127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128">
+        <v>1040.95</v>
+      </c>
+      <c r="F128" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129">
+        <v>1036</v>
+      </c>
+      <c r="F129" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>66</v>
+      </c>
+      <c r="D130">
+        <v>1245.86</v>
+      </c>
+      <c r="F130" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131">
+        <v>1453.91</v>
+      </c>
+      <c r="F131" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="72">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -218,6 +221,12 @@
   </si>
   <si>
     <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
+  </si>
+  <si>
+    <t>11 Apr -- 17 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -636,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>1.01</v>
@@ -653,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -665,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -685,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -705,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -725,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -765,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -785,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -805,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -825,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -845,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -865,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -905,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -925,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -945,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -965,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -985,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -1005,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1025,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1045,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1065,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1085,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1105,7 +1114,7 @@
         <v>81.63</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1125,7 +1134,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1145,7 +1154,7 @@
         <v>114.61</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1165,7 +1174,7 @@
         <v>12.16</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1185,7 +1194,7 @@
         <v>252.04</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1205,7 +1214,7 @@
         <v>298.24</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1225,7 +1234,7 @@
         <v>697.34</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1245,7 +1254,7 @@
         <v>704.78</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1265,7 +1274,7 @@
         <v>1405.38</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1285,7 +1294,7 @@
         <v>1645.94</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1305,7 +1314,7 @@
         <v>1773</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>2376.86</v>
@@ -1325,7 +1334,7 @@
         <v>1524.65</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J36">
         <v>1524.65</v>
@@ -1339,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>2683.43</v>
@@ -1351,7 +1360,7 @@
         <v>1816.96</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J37">
         <v>1670.8</v>
@@ -1365,25 +1374,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D38">
         <v>871.1</v>
       </c>
       <c r="E38">
-        <v>2277.04</v>
+        <v>2304.61</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J38">
-        <v>1872.88</v>
+        <v>1882.07</v>
       </c>
       <c r="K38">
-        <v>68.06</v>
+        <v>68.14</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1391,25 +1400,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D39">
         <v>902.49</v>
       </c>
       <c r="E39">
-        <v>2431.8</v>
+        <v>2436.51</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J39">
-        <v>2012.61</v>
+        <v>2020.68</v>
       </c>
       <c r="K39">
-        <v>69.28</v>
+        <v>69.34999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1417,25 +1426,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D40">
         <v>924.77</v>
       </c>
       <c r="E40">
-        <v>2134.23</v>
+        <v>2137.09</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J40">
-        <v>2036.94</v>
+        <v>2043.96</v>
       </c>
       <c r="K40">
-        <v>69.38</v>
+        <v>69.44</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1443,25 +1452,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D41">
         <v>856.29</v>
       </c>
       <c r="E41">
-        <v>2273.99</v>
+        <v>2277.85</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J41">
-        <v>2076.45</v>
+        <v>2082.95</v>
       </c>
       <c r="K41">
-        <v>69.92</v>
+        <v>69.98</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1469,25 +1478,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D42">
         <v>930.37</v>
       </c>
       <c r="E42">
-        <v>2056.35</v>
+        <v>2060.2</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J42">
-        <v>2073.57</v>
+        <v>2079.7</v>
       </c>
       <c r="K42">
-        <v>69.77</v>
+        <v>69.81999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1495,25 +1504,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D43">
         <v>1717.18</v>
       </c>
       <c r="E43">
-        <v>770.11</v>
+        <v>776.11</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J43">
-        <v>1910.64</v>
+        <v>1916.75</v>
       </c>
       <c r="K43">
-        <v>64.92</v>
+        <v>64.98999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1521,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>2683.43</v>
@@ -1533,7 +1542,7 @@
         <v>1790.22</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G44">
         <v>0.97</v>
@@ -1545,10 +1554,10 @@
         <v>1465.96</v>
       </c>
       <c r="J44">
-        <v>1897.26</v>
+        <v>1902.69</v>
       </c>
       <c r="K44">
-        <v>65.12</v>
+        <v>65.18000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1556,25 +1565,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D45">
         <v>890.47</v>
       </c>
       <c r="E45">
-        <v>2257.67</v>
+        <v>2285.24</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J45">
-        <v>1933.3</v>
+        <v>1940.94</v>
       </c>
       <c r="K45">
-        <v>65.78</v>
+        <v>65.86</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1582,25 +1591,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D46">
         <v>959.5599999999999</v>
       </c>
       <c r="E46">
-        <v>2374.72</v>
+        <v>2379.44</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J46">
-        <v>1973.43</v>
+        <v>1980.81</v>
       </c>
       <c r="K46">
-        <v>66.27</v>
+        <v>66.34999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1608,25 +1617,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D47">
         <v>937.96</v>
       </c>
       <c r="E47">
-        <v>2121.04</v>
+        <v>2123.9</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J47">
-        <v>1985.73</v>
+        <v>1992.73</v>
       </c>
       <c r="K47">
-        <v>66.53</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1634,25 +1643,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D48">
         <v>1030.18</v>
       </c>
       <c r="E48">
-        <v>2100.1</v>
+        <v>2103.96</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J48">
-        <v>1994.53</v>
+        <v>2001.29</v>
       </c>
       <c r="K48">
-        <v>66.56999999999999</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1660,25 +1669,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D49">
         <v>1301.66</v>
       </c>
       <c r="E49">
-        <v>1685.05</v>
+        <v>1688.91</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J49">
-        <v>1972.42</v>
+        <v>1978.98</v>
       </c>
       <c r="K49">
-        <v>65.84999999999999</v>
+        <v>65.91</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1686,25 +1695,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D50">
         <v>1513.33</v>
       </c>
       <c r="E50">
-        <v>973.96</v>
+        <v>979.96</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J50">
-        <v>1905.86</v>
+        <v>1912.37</v>
       </c>
       <c r="K50">
-        <v>64.06999999999999</v>
+        <v>64.14</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1712,25 +1721,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D51">
         <v>1634.51</v>
       </c>
       <c r="E51">
-        <v>272.2</v>
+        <v>215.92</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J51">
-        <v>1803.76</v>
+        <v>1806.35</v>
       </c>
       <c r="K51">
-        <v>60.95</v>
+        <v>60.86</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1738,19 +1747,19 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D52">
         <v>881.6799999999999</v>
       </c>
       <c r="E52">
-        <v>2266.46</v>
+        <v>2294.03</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H52">
         <v>67.69</v>
@@ -1759,10 +1768,10 @@
         <v>1767.48</v>
       </c>
       <c r="J52">
-        <v>1830.97</v>
+        <v>1835.03</v>
       </c>
       <c r="K52">
-        <v>61.6</v>
+        <v>61.53</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1770,25 +1779,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D53">
         <v>1085.6</v>
       </c>
       <c r="E53">
-        <v>2248.69</v>
+        <v>2253.4</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J53">
-        <v>1854.18</v>
+        <v>1858.28</v>
       </c>
       <c r="K53">
-        <v>61.93</v>
+        <v>61.86</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1796,25 +1805,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D54">
         <v>1019.48</v>
       </c>
       <c r="E54">
-        <v>2039.52</v>
+        <v>2042.38</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J54">
-        <v>1863.94</v>
+        <v>1867.97</v>
       </c>
       <c r="K54">
-        <v>62.18</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1822,25 +1831,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D55">
         <v>894.4</v>
       </c>
       <c r="E55">
-        <v>2235.89</v>
+        <v>2239.75</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J55">
-        <v>1882.53</v>
+        <v>1886.55</v>
       </c>
       <c r="K55">
-        <v>62.64</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1848,25 +1857,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D56">
         <v>1649.15</v>
       </c>
       <c r="E56">
-        <v>1337.56</v>
+        <v>1341.42</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J56">
-        <v>1856.58</v>
+        <v>1860.6</v>
       </c>
       <c r="K56">
-        <v>61.79</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1874,25 +1883,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D57">
         <v>1674.68</v>
       </c>
       <c r="E57">
-        <v>812.6</v>
+        <v>818.6</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J57">
-        <v>1809.13</v>
+        <v>1813.23</v>
       </c>
       <c r="K57">
-        <v>60.47</v>
+        <v>60.42</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1900,25 +1909,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D58">
         <v>953.51</v>
       </c>
       <c r="E58">
-        <v>953.21</v>
+        <v>896.92</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J58">
-        <v>1771.91</v>
+        <v>1773.39</v>
       </c>
       <c r="K58">
-        <v>60.01</v>
+        <v>59.91</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1926,13 +1935,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <v>708.51</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1940,19 +1949,19 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D60">
         <v>920.27</v>
       </c>
       <c r="E60">
-        <v>2414.02</v>
+        <v>2418.73</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G60">
         <v>0.99</v>
@@ -1964,10 +1973,10 @@
         <v>2375.31</v>
       </c>
       <c r="J60">
-        <v>1798.67</v>
+        <v>1800.28</v>
       </c>
       <c r="K60">
-        <v>60.53</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1975,25 +1984,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D61">
         <v>992.85</v>
       </c>
       <c r="E61">
-        <v>2066.15</v>
+        <v>2069</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J61">
-        <v>1809.37</v>
+        <v>1811.03</v>
       </c>
       <c r="K61">
-        <v>60.81</v>
+        <v>60.71</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2001,25 +2010,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D62">
         <v>986.5</v>
       </c>
       <c r="E62">
-        <v>2143.79</v>
+        <v>2147.64</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J62">
-        <v>1822.23</v>
+        <v>1823.98</v>
       </c>
       <c r="K62">
-        <v>61.1</v>
+        <v>61.01</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2027,25 +2036,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D63">
         <v>1087.7</v>
       </c>
       <c r="E63">
-        <v>1899.02</v>
+        <v>1902.87</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J63">
-        <v>1825.07</v>
+        <v>1826.9</v>
       </c>
       <c r="K63">
-        <v>61.2</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2053,25 +2062,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D64">
         <v>1135.72</v>
       </c>
       <c r="E64">
-        <v>1351.57</v>
+        <v>1357.57</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J64">
-        <v>1808.16</v>
+        <v>1810.14</v>
       </c>
       <c r="K64">
-        <v>60.95</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2079,25 +2088,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D65">
         <v>1262.06</v>
       </c>
       <c r="E65">
-        <v>644.65</v>
+        <v>588.37</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J65">
-        <v>1768.04</v>
+        <v>1768.01</v>
       </c>
       <c r="K65">
-        <v>60.01</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2105,13 +2114,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <v>1369.12</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2119,13 +2128,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67">
         <v>1496.33</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2133,28 +2142,28 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D68">
         <v>860.29</v>
       </c>
       <c r="E68">
-        <v>2473.99</v>
+        <v>2478.71</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I68">
         <v>2375.32</v>
       </c>
       <c r="J68">
-        <v>1791.57</v>
+        <v>1791.7</v>
       </c>
       <c r="K68">
-        <v>60.49</v>
+        <v>60.35</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2162,25 +2171,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C69">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D69">
         <v>862.0700000000001</v>
       </c>
       <c r="E69">
-        <v>2196.93</v>
+        <v>2199.79</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J69">
-        <v>1804.65</v>
+        <v>1804.86</v>
       </c>
       <c r="K69">
-        <v>60.85</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2188,25 +2197,25 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D70">
         <v>826.12</v>
       </c>
       <c r="E70">
-        <v>2304.17</v>
+        <v>2308.02</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J70">
-        <v>1820.26</v>
+        <v>1820.59</v>
       </c>
       <c r="K70">
-        <v>61.25</v>
+        <v>61.12</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2214,25 +2223,25 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D71">
         <v>794.46</v>
       </c>
       <c r="E71">
-        <v>2192.25</v>
+        <v>2196.11</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J71">
-        <v>1831.53</v>
+        <v>1831.97</v>
       </c>
       <c r="K71">
-        <v>61.62</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2240,25 +2249,25 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D72">
         <v>766.6900000000001</v>
       </c>
       <c r="E72">
-        <v>1720.59</v>
+        <v>1726.59</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J72">
-        <v>1828.27</v>
+        <v>1828.87</v>
       </c>
       <c r="K72">
-        <v>61.84</v>
+        <v>61.72</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2266,25 +2275,25 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D73">
         <v>767.8099999999999</v>
       </c>
       <c r="E73">
-        <v>1138.9</v>
+        <v>1082.61</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J73">
-        <v>1808.57</v>
+        <v>1807.54</v>
       </c>
       <c r="K73">
-        <v>61.78</v>
+        <v>61.63</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2292,13 +2301,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D74">
         <v>802.62</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2306,13 +2315,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D75">
         <v>904.74</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2320,19 +2329,19 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C76">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D76">
         <v>840.3</v>
       </c>
       <c r="E76">
-        <v>2218.7</v>
+        <v>2221.56</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G76">
         <v>0.95</v>
@@ -2344,10 +2353,10 @@
         <v>2495.37</v>
       </c>
       <c r="J76">
-        <v>1819.97</v>
+        <v>1819.05</v>
       </c>
       <c r="K76">
-        <v>62.08</v>
+        <v>61.94</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2355,25 +2364,25 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C77">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D77">
         <v>877.14</v>
       </c>
       <c r="E77">
-        <v>2253.15</v>
+        <v>2257</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J77">
-        <v>1831.67</v>
+        <v>1830.88</v>
       </c>
       <c r="K77">
-        <v>62.35</v>
+        <v>62.21</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2381,25 +2390,25 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C78">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D78">
         <v>916.4299999999999</v>
       </c>
       <c r="E78">
-        <v>2070.28</v>
+        <v>2074.14</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J78">
-        <v>1837.95</v>
+        <v>1837.28</v>
       </c>
       <c r="K78">
-        <v>62.53</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2407,25 +2416,25 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C79">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D79">
         <v>956.33</v>
       </c>
       <c r="E79">
-        <v>1530.95</v>
+        <v>1536.95</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J79">
-        <v>1830.08</v>
+        <v>1829.58</v>
       </c>
       <c r="K79">
-        <v>62.51</v>
+        <v>62.38</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2433,25 +2442,25 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C80">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D80">
         <v>927.5599999999999</v>
       </c>
       <c r="E80">
-        <v>979.16</v>
+        <v>922.87</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J80">
-        <v>1808.81</v>
+        <v>1806.91</v>
       </c>
       <c r="K80">
-        <v>62.23</v>
+        <v>62.06</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2459,13 +2468,13 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D81">
         <v>1243.6</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2473,13 +2482,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D82">
         <v>1417.18</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2487,13 +2496,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D83">
         <v>1615.78</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2501,19 +2510,19 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C84">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D84">
         <v>868.6799999999999</v>
       </c>
       <c r="E84">
-        <v>2190.32</v>
+        <v>2193.17</v>
       </c>
       <c r="F84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G84">
         <v>0.9399999999999999</v>
@@ -2525,10 +2534,10 @@
         <v>2475.9</v>
       </c>
       <c r="J84">
-        <v>1818.11</v>
+        <v>1816.34</v>
       </c>
       <c r="K84">
-        <v>62.46</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2536,25 +2545,25 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D85">
         <v>907.87</v>
       </c>
       <c r="E85">
-        <v>2222.42</v>
+        <v>2226.27</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J85">
-        <v>1827.74</v>
+        <v>1826.1</v>
       </c>
       <c r="K85">
-        <v>62.66</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2562,25 +2571,25 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D86">
         <v>876.16</v>
       </c>
       <c r="E86">
-        <v>2110.55</v>
+        <v>2114.41</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J86">
-        <v>1834.32</v>
+        <v>1832.8</v>
       </c>
       <c r="K86">
-        <v>62.85</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2588,25 +2597,25 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C87">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D87">
         <v>868.03</v>
       </c>
       <c r="E87">
-        <v>1619.26</v>
+        <v>1625.26</v>
       </c>
       <c r="F87" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J87">
-        <v>1829.43</v>
+        <v>1828.08</v>
       </c>
       <c r="K87">
-        <v>62.9</v>
+        <v>62.75</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2614,25 +2623,25 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C88">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D88">
         <v>821.51</v>
       </c>
       <c r="E88">
-        <v>1085.2</v>
+        <v>1028.91</v>
       </c>
       <c r="F88" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J88">
-        <v>1812.89</v>
+        <v>1810.32</v>
       </c>
       <c r="K88">
-        <v>62.76</v>
+        <v>62.59</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2640,13 +2649,13 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D89">
         <v>851.61</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2654,13 +2663,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D90">
         <v>937.87</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2668,13 +2677,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D91">
         <v>1055.75</v>
       </c>
       <c r="F91" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2682,19 +2691,19 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C92">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D92">
         <v>888.86</v>
       </c>
       <c r="E92">
-        <v>2241.43</v>
+        <v>2245.28</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H92">
         <v>72.45999999999999</v>
@@ -2703,10 +2712,10 @@
         <v>2235.87</v>
       </c>
       <c r="J92">
-        <v>1822.21</v>
+        <v>1819.78</v>
       </c>
       <c r="K92">
-        <v>62.96</v>
+        <v>62.79</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2714,25 +2723,25 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C93">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D93">
         <v>901.5599999999999</v>
       </c>
       <c r="E93">
-        <v>2085.15</v>
+        <v>2089.01</v>
       </c>
       <c r="F93" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J93">
-        <v>1827.8</v>
+        <v>1825.51</v>
       </c>
       <c r="K93">
-        <v>63.1</v>
+        <v>62.94</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2740,25 +2749,25 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D94">
         <v>1024.56</v>
       </c>
       <c r="E94">
-        <v>1462.72</v>
+        <v>1468.72</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J94">
-        <v>1820.19</v>
+        <v>1818.08</v>
       </c>
       <c r="K94">
-        <v>63.01</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2766,25 +2775,25 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C95">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D95">
         <v>1014.05</v>
       </c>
       <c r="E95">
-        <v>892.67</v>
+        <v>836.38</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J95">
-        <v>1801.27</v>
+        <v>1798.04</v>
       </c>
       <c r="K95">
-        <v>62.68</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2792,13 +2801,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D96">
         <v>1027.94</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2806,13 +2815,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D97">
         <v>1255.83</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2820,13 +2829,13 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D98">
         <v>1398.91</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2834,13 +2843,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D99">
         <v>1641.03</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2848,19 +2857,19 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C100">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D100">
         <v>1189.13</v>
       </c>
       <c r="E100">
-        <v>1941.16</v>
+        <v>1945.01</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G100">
         <v>0.96</v>
@@ -2872,10 +2881,10 @@
         <v>2276.54</v>
       </c>
       <c r="J100">
-        <v>1804.06</v>
+        <v>1800.98</v>
       </c>
       <c r="K100">
-        <v>62.67</v>
+        <v>62.49</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2883,25 +2892,25 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C101">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D101">
         <v>1280.97</v>
       </c>
       <c r="E101">
-        <v>1705.75</v>
+        <v>1709.61</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J101">
-        <v>1802.14</v>
+        <v>1799.19</v>
       </c>
       <c r="K101">
-        <v>62.56</v>
+        <v>62.38</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2909,25 +2918,25 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C102">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D102">
         <v>1531.24</v>
       </c>
       <c r="E102">
-        <v>956.04</v>
+        <v>962.04</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J102">
-        <v>1785.86</v>
+        <v>1783.09</v>
       </c>
       <c r="K102">
-        <v>62.1</v>
+        <v>61.93</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2935,25 +2944,25 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C103">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D103">
         <v>1403.62</v>
       </c>
       <c r="E103">
-        <v>503.1</v>
+        <v>446.81</v>
       </c>
       <c r="F103" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J103">
-        <v>1761.66</v>
+        <v>1757.88</v>
       </c>
       <c r="K103">
-        <v>61.42</v>
+        <v>61.21</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2961,13 +2970,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D104">
         <v>1444.91</v>
       </c>
       <c r="F104" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2975,13 +2984,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D105">
         <v>1597.67</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -2989,13 +2998,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D106">
         <v>2126.8</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -3003,13 +3012,13 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D107">
         <v>2220.8</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -3017,19 +3026,19 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C108">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D108">
         <v>1214.11</v>
       </c>
       <c r="E108">
-        <v>1772.6</v>
+        <v>1776.46</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -3041,10 +3050,10 @@
         <v>2424.68</v>
       </c>
       <c r="J108">
-        <v>1761.86</v>
+        <v>1758.22</v>
       </c>
       <c r="K108">
-        <v>61.38</v>
+        <v>61.18</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -3052,25 +3061,25 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C109">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D109">
         <v>1174.62</v>
       </c>
       <c r="E109">
-        <v>1312.67</v>
+        <v>1318.67</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J109">
-        <v>1753.7</v>
+        <v>1750.23</v>
       </c>
       <c r="K109">
-        <v>61.23</v>
+        <v>61.03</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -3078,25 +3087,25 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C110">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D110">
         <v>763.89</v>
       </c>
       <c r="E110">
-        <v>1142.83</v>
+        <v>1086.54</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J110">
-        <v>1742.79</v>
+        <v>1738.38</v>
       </c>
       <c r="K110">
-        <v>61.2</v>
+        <v>60.99</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3104,13 +3113,13 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D111">
         <v>728.47</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3118,13 +3127,13 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D112">
         <v>1384.64</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3132,13 +3141,13 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D113">
         <v>1494.33</v>
       </c>
       <c r="F113" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -3146,13 +3155,13 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D114">
         <v>937.89</v>
       </c>
       <c r="F114" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -3160,13 +3169,13 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D115">
         <v>2036.6</v>
       </c>
       <c r="F115" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -3174,19 +3183,19 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C116">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D116">
         <v>1513.02</v>
       </c>
       <c r="E116">
-        <v>1473.7</v>
+        <v>1477.55</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H116">
         <v>76.55</v>
@@ -3195,10 +3204,10 @@
         <v>2411.75</v>
       </c>
       <c r="J116">
-        <v>1738.07</v>
+        <v>1733.8</v>
       </c>
       <c r="K116">
-        <v>61</v>
+        <v>60.78</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -3206,25 +3215,25 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C117">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D117">
         <v>1686.83</v>
       </c>
       <c r="E117">
-        <v>800.45</v>
+        <v>806.45</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J117">
-        <v>1721.9</v>
+        <v>1717.81</v>
       </c>
       <c r="K117">
-        <v>60.5</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -3232,25 +3241,25 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C118">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D118">
         <v>1507.37</v>
       </c>
       <c r="E118">
-        <v>399.35</v>
+        <v>343.06</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J118">
-        <v>1699.49</v>
+        <v>1694.51</v>
       </c>
       <c r="K118">
-        <v>59.83</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -3258,13 +3267,13 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D119">
         <v>1543.2</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -3272,13 +3281,13 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D120">
         <v>1526.71</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -3286,13 +3295,13 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D121">
         <v>1651.81</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -3300,13 +3309,13 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D122">
         <v>1659.51</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -3314,13 +3323,13 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D123">
         <v>1871.11</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -3328,19 +3337,19 @@
         <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C124">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D124">
         <v>770.79</v>
       </c>
       <c r="E124">
-        <v>1716.49</v>
+        <v>1722.49</v>
       </c>
       <c r="F124" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G124">
         <v>1.04</v>
@@ -3352,10 +3361,10 @@
         <v>2304.6</v>
       </c>
       <c r="J124">
-        <v>1699.77</v>
+        <v>1694.98</v>
       </c>
       <c r="K124">
-        <v>59.98</v>
+        <v>59.74</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -3363,25 +3372,25 @@
         <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C125">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D125">
         <v>755.61</v>
       </c>
       <c r="E125">
-        <v>1151.11</v>
+        <v>1094.82</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J125">
-        <v>1690.77</v>
+        <v>1685.14</v>
       </c>
       <c r="K125">
-        <v>59.99</v>
+        <v>59.74</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -3389,13 +3398,13 @@
         <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D126">
         <v>798.36</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -3403,13 +3412,13 @@
         <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D127">
         <v>913.67</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -3417,55 +3426,176 @@
         <v>18</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D128">
         <v>1040.95</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D129">
         <v>1036</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D130">
         <v>1245.86</v>
       </c>
       <c r="F130" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D131">
         <v>1453.91</v>
       </c>
       <c r="F131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132">
+        <v>1045.31</v>
+      </c>
+      <c r="F132" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132">
+        <v>1.23</v>
+      </c>
+      <c r="H132">
+        <v>54.01</v>
+      </c>
+      <c r="I132">
+        <v>999.35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133">
+        <v>1272.55</v>
+      </c>
+      <c r="F133" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134">
+        <v>1404.27</v>
+      </c>
+      <c r="F134" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>66</v>
+      </c>
+      <c r="D135">
+        <v>1643.62</v>
+      </c>
+      <c r="F135" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136">
+        <v>1790.29</v>
+      </c>
+      <c r="F136" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
         <v>68</v>
+      </c>
+      <c r="D137">
+        <v>2045.36</v>
+      </c>
+      <c r="F137" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+      <c r="D138">
+        <v>2027.48</v>
+      </c>
+      <c r="F138" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139">
+        <v>2041.71</v>
+      </c>
+      <c r="F139" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
